--- a/files/53tbegqtr6uwt342.xlsx
+++ b/files/53tbegqtr6uwt342.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20382"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_module\api-banlist-voip\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB85B6A-5671-4765-A25E-7287588DDB07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>79209528698</t>
   </si>
@@ -412,12 +411,15 @@
   </si>
   <si>
     <t>79209534631</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,23 +569,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -619,23 +604,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -811,12 +779,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A1320"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -824,6602 +790,6607 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>79209520373</v>
+      <c r="A1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>79209531349</v>
+        <v>79209520373</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>79209518155</v>
+        <v>79209531349</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>79209549131</v>
+        <v>79209518155</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>79209548349</v>
+        <v>79209549131</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>79307812058</v>
+        <v>79209548349</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>79209542226</v>
+        <v>79307812058</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>79206393004</v>
+        <v>79209542226</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>79209549013</v>
+        <v>79206393004</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>79209518922</v>
+        <v>79209549013</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>79206389400</v>
+        <v>79209518922</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>79209544347</v>
+        <v>79206389400</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>79209517235</v>
+        <v>79209544347</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>79209517195</v>
+        <v>79209517235</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>79209544378</v>
+        <v>79209517195</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>79209529416</v>
+        <v>79209544378</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>79209517875</v>
+        <v>79209529416</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>79209520923</v>
+        <v>79209517875</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>79209544146</v>
+        <v>79209520923</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>79209547544</v>
+        <v>79209544146</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>79209519145</v>
+        <v>79209547544</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>79209528156</v>
+        <v>79209519145</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>79209517202</v>
+        <v>79209528156</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>79209545132</v>
+        <v>79209517202</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>79209547550</v>
+        <v>79209545132</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>79209547550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>79209518907</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>79209547642</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>79307811842</v>
+        <v>79209547642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>79209528266</v>
+        <v>79307811842</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>79209521051</v>
+        <v>79209528266</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>79209521014</v>
+        <v>79209521051</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>79209518091</v>
+        <v>79209521014</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>79206393849</v>
+        <v>79209518091</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>79209520683</v>
+        <v>79206393849</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>79209521165</v>
+        <v>79209520683</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>79209519131</v>
+        <v>79209521165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>79209518321</v>
+        <v>79209519131</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>79209543288</v>
+        <v>79209518321</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>79209543162</v>
+        <v>79209543288</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>79209544886</v>
+        <v>79209543162</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>79307811767</v>
+        <v>79209544886</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>79206391397</v>
+        <v>79307811767</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>79209521293</v>
+        <v>79206391397</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>79209516995</v>
+        <v>79209521293</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>79209520559</v>
+        <v>79209516995</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>79209519891</v>
+        <v>79209520559</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>79209545080</v>
+        <v>79209519891</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>79209546166</v>
+        <v>79209545080</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>79206394910</v>
+        <v>79209546166</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>79209544386</v>
+        <v>79206394910</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>79209523722</v>
+        <v>79209544386</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>79206391932</v>
+        <v>79209523722</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>79206394897</v>
+        <v>79206391932</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>79209519087</v>
+        <v>79206394897</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>79209516876</v>
+        <v>79209519087</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>79209528785</v>
+        <v>79209516876</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>79209548790</v>
+        <v>79209528785</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>79206394869</v>
+        <v>79209548790</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
+        <v>79206394869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>79206394219</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>79209548290</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>79209530659</v>
+        <v>79209548290</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>79209518413</v>
+        <v>79209530659</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>79206395062</v>
+        <v>79209518413</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>79209549492</v>
+        <v>79206395062</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
+        <v>79209549492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>79209530010</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>79209545001</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>79209543246</v>
+        <v>79209545001</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>79209548931</v>
+        <v>79209543246</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>79209542330</v>
+        <v>79209548931</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>79209520112</v>
+        <v>79209542330</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>79206389384</v>
+        <v>79209520112</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>79209548370</v>
+        <v>79206389384</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>79209521006</v>
+        <v>79209548370</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>79209542686</v>
+        <v>79209521006</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>79209546634</v>
+        <v>79209542686</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>79209517334</v>
+        <v>79209546634</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
+        <v>79209517334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>79209518474</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>79209545049</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>79209519907</v>
+        <v>79209545049</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>79209517648</v>
+        <v>79209519907</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>79307809896</v>
+        <v>79209517648</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>79209529770</v>
+        <v>79307809896</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>79209519490</v>
+        <v>79209529770</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>79307809941</v>
+        <v>79209519490</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>79209543432</v>
+        <v>79307809941</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
+        <v>79209543432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>79209528441</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>79209547597</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>79206395461</v>
+        <v>79209547597</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>79209531396</v>
+        <v>79206395461</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>79209519113</v>
+        <v>79209531396</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
+        <v>79209519113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>79206397539</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>79209522287</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
+        <v>79209522287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>79209547039</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>79209518287</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>79209521146</v>
+        <v>79209518287</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>79206395547</v>
+        <v>79209521146</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>79209543075</v>
+        <v>79206395547</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>79209519915</v>
+        <v>79209543075</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>79209517995</v>
+        <v>79209519915</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>79209518177</v>
+        <v>79209517995</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>79209548837</v>
+        <v>79209518177</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>79209518766</v>
+        <v>79209548837</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>79206393916</v>
+        <v>79209518766</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>79209525642</v>
+        <v>79206393916</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>79209519349</v>
+        <v>79209525642</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
+        <v>79209519349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>79206393661</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>79209547387</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>79209542286</v>
+        <v>79209547387</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>79206392207</v>
+        <v>79209542286</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>79209519914</v>
+        <v>79206392207</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>79209531280</v>
+        <v>79209519914</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>79209518955</v>
+        <v>79209531280</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>79209521172</v>
+        <v>79209518955</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>79209517738</v>
+        <v>79209521172</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>79209520677</v>
+        <v>79209517738</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>79209531302</v>
+        <v>79209520677</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>79206395734</v>
+        <v>79209531302</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>79206391245</v>
+        <v>79206395734</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>79209529043</v>
+        <v>79206391245</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>79206391657</v>
+        <v>79209529043</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>79209529039</v>
+        <v>79206391657</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>79209528134</v>
+        <v>79209529039</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>79209544133</v>
+        <v>79209528134</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>79209529083</v>
+        <v>79209544133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>79209518420</v>
+        <v>79209529083</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>79206394570</v>
+        <v>79209518420</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>79209544787</v>
+        <v>79206394570</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>79209542513</v>
+        <v>79209544787</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>79209549034</v>
+        <v>79209542513</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>79209528848</v>
+        <v>79209549034</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>79209516977</v>
+        <v>79209528848</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>79209546871</v>
+        <v>79209516977</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>79209543397</v>
+        <v>79209546871</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>79206393565</v>
+        <v>79209543397</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>79209544689</v>
+        <v>79206393565</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>79209518158</v>
+        <v>79209544689</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
+        <v>79209518158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>79209546156</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>79209545184</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>79209518831</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>79206393614</v>
+        <v>79209518831</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
+        <v>79206393614</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>79209542714</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>79209517121</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>79209548563</v>
+        <v>79209517121</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>79209549146</v>
+        <v>79209548563</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>79209518260</v>
+        <v>79209549146</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>79209546615</v>
+        <v>79209518260</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
+        <v>79209546615</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>79209546948</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>79209524122</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
+        <v>79209524122</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>79209528921</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>79209546399</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>79206397653</v>
+        <v>79209546399</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>79209518339</v>
+        <v>79206397653</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>79209531216</v>
+        <v>79209518339</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>79209518910</v>
+        <v>79209531216</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>79209544867</v>
+        <v>79209518910</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>79209531252</v>
+        <v>79209544867</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>79209518527</v>
+        <v>79209531252</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>79209519233</v>
+        <v>79209518527</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>79209548175</v>
+        <v>79209519233</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>79209521016</v>
+        <v>79209548175</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>79209518798</v>
+        <v>79209521016</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>79209518205</v>
+        <v>79209518798</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>79209544683</v>
+        <v>79209518205</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>79209519323</v>
+        <v>79209544683</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>79209519026</v>
+        <v>79209519323</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>79209518243</v>
+        <v>79209519026</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>79209528424</v>
+        <v>79209518243</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>79206394608</v>
+        <v>79209528424</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>79209542540</v>
+        <v>79206394608</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>79209544823</v>
+        <v>79209542540</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
+        <v>79209544823</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>79209529780</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>79206394872</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>79206396785</v>
+        <v>79206394872</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>79206395256</v>
+        <v>79206396785</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>79209531244</v>
+        <v>79206395256</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>79209519987</v>
+        <v>79209531244</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
+        <v>79209519987</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>79209518316</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>79209547372</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>79209524818</v>
+        <v>79209547372</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>79209546227</v>
+        <v>79209524818</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>79209519010</v>
+        <v>79209546227</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>79209523581</v>
+        <v>79209519010</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>79209528304</v>
+        <v>79209523581</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>79209529185</v>
+        <v>79209528304</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>79209518430</v>
+        <v>79209529185</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>79209529391</v>
+        <v>79209518430</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>79209543916</v>
+        <v>79209529391</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>79206396093</v>
+        <v>79209543916</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>79209549586</v>
+        <v>79206396093</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>79209544889</v>
+        <v>79209549586</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>79209520856</v>
+        <v>79209544889</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>79209543786</v>
+        <v>79209520856</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
+        <v>79209543786</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>79206389114</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>79209530582</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>79209546676</v>
+        <v>79209530582</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>79206393466</v>
+        <v>79209546676</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>79206388631</v>
+        <v>79206393466</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>79209525675</v>
+        <v>79206388631</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>79209547790</v>
+        <v>79209525675</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>79209544061</v>
+        <v>79209547790</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>79209524878</v>
+        <v>79209544061</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>79209518945</v>
+        <v>79209524878</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>79206391093</v>
+        <v>79209518945</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>79209544232</v>
+        <v>79206391093</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>79209531345</v>
+        <v>79209544232</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>79209531259</v>
+        <v>79209531345</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>79209546759</v>
+        <v>79209531259</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>79307811412</v>
+        <v>79209546759</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>79206395173</v>
+        <v>79307811412</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>79209516904</v>
+        <v>79206395173</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>79209548046</v>
+        <v>79209516904</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>79209545133</v>
+        <v>79209548046</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>79209530141</v>
+        <v>79209545133</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>79209548832</v>
+        <v>79209530141</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>79209548158</v>
+        <v>79209548832</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>79209524730</v>
+        <v>79209548158</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>79209517714</v>
+        <v>79209524730</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>79209547319</v>
+        <v>79209517714</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>79209518729</v>
+        <v>79209547319</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>79209545033</v>
+        <v>79209518729</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>79206391462</v>
+        <v>79209545033</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>79206394230</v>
+        <v>79206391462</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>79209518206</v>
+        <v>79206394230</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>79209547629</v>
+        <v>79209518206</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>79209518929</v>
+        <v>79209547629</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>79209518100</v>
+        <v>79209518929</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>79209545085</v>
+        <v>79209518100</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>79209544891</v>
+        <v>79209545085</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>79206398880</v>
+        <v>79209544891</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>79209543457</v>
+        <v>79206398880</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>79209517701</v>
+        <v>79209543457</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>79209522271</v>
+        <v>79209517701</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>79209545127</v>
+        <v>79209522271</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>79209528442</v>
+        <v>79209545127</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>79209520384</v>
+        <v>79209528442</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
+        <v>79209520384</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>79209518538</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>79209548162</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>79206398810</v>
+        <v>79209548162</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>79209525623</v>
+        <v>79206398810</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>79209549089</v>
+        <v>79209525623</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>79206393392</v>
+        <v>79209549089</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>79209547498</v>
+        <v>79206393392</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>79209519343</v>
+        <v>79209547498</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>79209518257</v>
+        <v>79209519343</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>79209529109</v>
+        <v>79209518257</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
+        <v>79209529109</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>79209518640</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>79206311140</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>79209544216</v>
+        <v>79206311140</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>79209548069</v>
+        <v>79209544216</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>79209544662</v>
+        <v>79209548069</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
+        <v>79209544662</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>79209518755</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>79209529378</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>79209543312</v>
+        <v>79209529378</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>79209520349</v>
+        <v>79209543312</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
+        <v>79209520349</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>79209518184</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>79209549175</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>79209520425</v>
+        <v>79209549175</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>79209529925</v>
+        <v>79209520425</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>79209518785</v>
+        <v>79209529925</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>79209529676</v>
+        <v>79209518785</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>79209542911</v>
+        <v>79209529676</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>79206393742</v>
+        <v>79209542911</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>79206395227</v>
+        <v>79206393742</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
+        <v>79206395227</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
         <v>79209525567</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>79209548409</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>79209518355</v>
+        <v>79209548409</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>79209518189</v>
+        <v>79209518355</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>79209547078</v>
+        <v>79209518189</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>79307809958</v>
+        <v>79209547078</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>79206394752</v>
+        <v>79307809958</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>79307811495</v>
+        <v>79206394752</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>79307811617</v>
+        <v>79307811495</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
+        <v>79307811617</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
         <v>79209517893</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>79209546132</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>79209547938</v>
+        <v>79209546132</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>79209528879</v>
+        <v>79209547938</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>79209520017</v>
+        <v>79209528879</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>79206389965</v>
+        <v>79209520017</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>79209519724</v>
+        <v>79206389965</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>79209528252</v>
+        <v>79209519724</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>79307812090</v>
+        <v>79209528252</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>79209518343</v>
+        <v>79307812090</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>79209543917</v>
+        <v>79209518343</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>79209519904</v>
+        <v>79209543917</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>79307809818</v>
+        <v>79209519904</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>79209523712</v>
+        <v>79307809818</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>79209517904</v>
+        <v>79209523712</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>79307812088</v>
+        <v>79209517904</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>79209528824</v>
+        <v>79307812088</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>79209548288</v>
+        <v>79209528824</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>79209530516</v>
+        <v>79209548288</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>79209543473</v>
+        <v>79209530516</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>79209543093</v>
+        <v>79209543473</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>79209548173</v>
+        <v>79209543093</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>79206389040</v>
+        <v>79209548173</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>79209529687</v>
+        <v>79206389040</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>79209528311</v>
+        <v>79209529687</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>79209543097</v>
+        <v>79209528311</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>79209530587</v>
+        <v>79209543097</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>79209520478</v>
+        <v>79209530587</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>79209531428</v>
+        <v>79209520478</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>79209530184</v>
+        <v>79209531428</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
+        <v>79209530184</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
         <v>79209547939</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
-        <v>79206394514</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>79209531394</v>
+        <v>79206394514</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>79209518419</v>
+        <v>79209531394</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>79209531317</v>
+        <v>79209518419</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>79209517686</v>
+        <v>79209531317</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>79307811420</v>
+        <v>79209517686</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>79209518812</v>
+        <v>79307811420</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>79209544800</v>
+        <v>79209518812</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>79209529129</v>
+        <v>79209544800</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>79209518968</v>
+        <v>79209529129</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>79209542355</v>
+        <v>79209518968</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>79209529051</v>
+        <v>79209542355</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>79209520967</v>
+        <v>79209529051</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>79209529397</v>
+        <v>79209520967</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>79206396958</v>
+        <v>79209529397</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>79300698285</v>
+        <v>79206396958</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>79209542961</v>
+        <v>79300698285</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>79307809953</v>
+        <v>79209542961</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>79206393334</v>
+        <v>79307809953</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>79209542468</v>
+        <v>79206393334</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>79209544312</v>
+        <v>79209542468</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>79209528260</v>
+        <v>79209544312</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>79209529693</v>
+        <v>79209528260</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
+        <v>79209529693</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
         <v>79209528928</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
-        <v>79209542203</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>79307811466</v>
+        <v>79209542203</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>79209520743</v>
+        <v>79307811466</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>79209548058</v>
+        <v>79209520743</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>79209518609</v>
+        <v>79209548058</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>79206393857</v>
+        <v>79209518609</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>79209528847</v>
+        <v>79206393857</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>79209529941</v>
+        <v>79209528847</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>79209549017</v>
+        <v>79209529941</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>79209519190</v>
+        <v>79209549017</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>79209547720</v>
+        <v>79209519190</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>79209547912</v>
+        <v>79209547720</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>79209519884</v>
+        <v>79209547912</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>79206394168</v>
+        <v>79209519884</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>79209549520</v>
+        <v>79206394168</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>79209543233</v>
+        <v>79209549520</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>79209548483</v>
+        <v>79209543233</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>79206396648</v>
+        <v>79209548483</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>79209517596</v>
+        <v>79206396648</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>79209517014</v>
+        <v>79209517596</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>79209517847</v>
+        <v>79209517014</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>79209525635</v>
+        <v>79209517847</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>79209519768</v>
+        <v>79209525635</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>79307812033</v>
+        <v>79209519768</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>79206392657</v>
+        <v>79307812033</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>79209546614</v>
+        <v>79206392657</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>79209544688</v>
+        <v>79209546614</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>79209543475</v>
+        <v>79209544688</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>79209518470</v>
+        <v>79209543475</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>79209544645</v>
+        <v>79209518470</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
+        <v>79209544645</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>79209528312</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="3" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
-        <v>79209542404</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>79209519989</v>
+        <v>79209542404</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>79209521076</v>
+        <v>79209519989</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>79209519327</v>
+        <v>79209521076</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>79209547443</v>
+        <v>79209519327</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>79209528344</v>
+        <v>79209547443</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>79209519732</v>
+        <v>79209528344</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>79209524832</v>
+        <v>79209519732</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>79206393269</v>
+        <v>79209524832</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>79300698291</v>
+        <v>79206393269</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>79206389774</v>
+        <v>79300698291</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>79209524107</v>
+        <v>79206389774</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>79206393436</v>
+        <v>79209524107</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>79209546648</v>
+        <v>79206393436</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>79206398771</v>
+        <v>79209546648</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>79206398025</v>
+        <v>79206398771</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>79209528470</v>
+        <v>79206398025</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>79209543730</v>
+        <v>79209528470</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>79209547778</v>
+        <v>79209543730</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>79209542258</v>
+        <v>79209547778</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>79209542275</v>
+        <v>79209542258</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>79209543893</v>
+        <v>79209542275</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>79209542901</v>
+        <v>79209543893</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
+        <v>79209542901</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
         <v>79209542448</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
-        <v>79206395514</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>79209547883</v>
+        <v>79206395514</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>79209521149</v>
+        <v>79209547883</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>79209519058</v>
+        <v>79209521149</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
+        <v>79209519058</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
         <v>79209525587</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="4" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="1">
-        <v>79209519472</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
+        <v>79209519472</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
         <v>79209531438</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="3" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
         <v>79209543472</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="4" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="1">
-        <v>79209548917</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>79209518652</v>
+        <v>79209548917</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>79209517782</v>
+        <v>79209518652</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>79206389055</v>
+        <v>79209517782</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>79209543735</v>
+        <v>79206389055</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>79209521061</v>
+        <v>79209543735</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>79209546778</v>
+        <v>79209521061</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>79209546348</v>
+        <v>79209546778</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
+        <v>79209546348</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
         <v>79209519498</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="3" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="1">
-        <v>79206313200</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
+        <v>79206313200</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
         <v>79206393161</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
         <v>79209528572</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="4" t="s">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="4" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="1">
-        <v>79209522163</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>79209528752</v>
+        <v>79209522163</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>79206391483</v>
+        <v>79209528752</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
+        <v>79206391483</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
         <v>79209518172</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="2" t="s">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="1">
-        <v>79209518901</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>79209547021</v>
+        <v>79209518901</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>79209521018</v>
+        <v>79209547021</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>79206393574</v>
+        <v>79209521018</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>79307809959</v>
+        <v>79206393574</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>79209521037</v>
+        <v>79307809959</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
+        <v>79209521037</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
         <v>79209529701</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="3" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="1">
-        <v>79307809852</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>79209518074</v>
+        <v>79307809852</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>79209517057</v>
+        <v>79209518074</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>79209542530</v>
+        <v>79209517057</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
+        <v>79209542530</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
         <v>79209528893</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="3" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="1">
-        <v>79209547687</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>79209528829</v>
+        <v>79209547687</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>79209519204</v>
+        <v>79209528829</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>79209547865</v>
+        <v>79209519204</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>79209517958</v>
+        <v>79209547865</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>79209546306</v>
+        <v>79209517958</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>79206388908</v>
+        <v>79209546306</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>79307811908</v>
+        <v>79206388908</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>79206398249</v>
+        <v>79307811908</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>79209518103</v>
+        <v>79206398249</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>79307811698</v>
+        <v>79209518103</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>79206389570</v>
+        <v>79307811698</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>79209548538</v>
+        <v>79206389570</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>79209547844</v>
+        <v>79209548538</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>79209522208</v>
+        <v>79209547844</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
+        <v>79209522208</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
         <v>79209517874</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="3" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="1">
-        <v>79206394294</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
+        <v>79206394294</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
         <v>79307811381</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="3" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
         <v>79209543064</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="3" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="1">
-        <v>79209525615</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>79209518165</v>
+        <v>79209525615</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>79209518732</v>
+        <v>79209518165</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>79209531439</v>
+        <v>79209518732</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>79209516867</v>
+        <v>79209531439</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>79209531364</v>
+        <v>79209516867</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>79206397263</v>
+        <v>79209531364</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>79209542948</v>
+        <v>79206397263</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>79206393629</v>
+        <v>79209542948</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>79209530593</v>
+        <v>79206393629</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>79209529671</v>
+        <v>79209530593</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>79206393675</v>
+        <v>79209529671</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>79209517083</v>
+        <v>79206393675</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>79209518796</v>
+        <v>79209517083</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
+        <v>79209518796</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
         <v>79307811499</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="3" t="s">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="1">
-        <v>79307809992</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>79209544937</v>
+        <v>79307809992</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>79206394263</v>
+        <v>79209544937</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>79209517742</v>
+        <v>79206394263</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>79209530534</v>
+        <v>79209517742</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>79209549198</v>
+        <v>79209530534</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>79209517835</v>
+        <v>79209549198</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>79209531295</v>
+        <v>79209517835</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
+        <v>79209531295</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
         <v>79209518456</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="3" t="s">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="1">
-        <v>79209518630</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>79209521031</v>
+        <v>79209518630</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>79209547395</v>
+        <v>79209521031</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>79209545203</v>
+        <v>79209547395</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>79209528949</v>
+        <v>79209545203</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>79209542218</v>
+        <v>79209528949</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>79209516936</v>
+        <v>79209542218</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>79209549287</v>
+        <v>79209516936</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>79206394635</v>
+        <v>79209549287</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>79209548392</v>
+        <v>79206394635</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
+        <v>79209548392</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
         <v>79209529938</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="3" t="s">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="1">
-        <v>79206388906</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>79209549152</v>
+        <v>79206388906</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>79209517675</v>
+        <v>79209549152</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>79209519719</v>
+        <v>79209517675</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>79209518916</v>
+        <v>79209519719</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>79209549271</v>
+        <v>79209518916</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>79206396766</v>
+        <v>79209549271</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>79209517931</v>
+        <v>79206396766</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>79209547340</v>
+        <v>79209517931</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>79209548217</v>
+        <v>79209547340</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>79209524183</v>
+        <v>79209548217</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>79209543398</v>
+        <v>79209524183</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>79209518580</v>
+        <v>79209543398</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>79206393369</v>
+        <v>79209518580</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>79209544657</v>
+        <v>79206393369</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>79209544767</v>
+        <v>79209544657</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>79209530521</v>
+        <v>79209544767</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>79307812104</v>
+        <v>79209530521</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>79209547580</v>
+        <v>79307812104</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>79209544302</v>
+        <v>79209547580</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>79209518928</v>
+        <v>79209544302</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
+        <v>79209518928</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
         <v>79206388954</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="3" t="s">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="1">
-        <v>79209549093</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>79209522188</v>
+        <v>79209549093</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>79209544154</v>
+        <v>79209522188</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>79206392612</v>
+        <v>79209544154</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>79209518068</v>
+        <v>79206392612</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>79206389791</v>
+        <v>79209518068</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>79206394912</v>
+        <v>79206389791</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>79209547806</v>
+        <v>79206394912</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>79209528459</v>
+        <v>79209547806</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>79209543578</v>
+        <v>79209528459</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>79209529749</v>
+        <v>79209543578</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>79209519531</v>
+        <v>79209529749</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>79209516875</v>
+        <v>79209519531</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>79209548017</v>
+        <v>79209516875</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>79206392042</v>
+        <v>79209548017</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>79209519304</v>
+        <v>79206392042</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>79209548958</v>
+        <v>79209519304</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>79209531276</v>
+        <v>79209548958</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>79209542210</v>
+        <v>79209531276</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>79209528739</v>
+        <v>79209542210</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>79206388649</v>
+        <v>79209528739</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>79209529064</v>
+        <v>79206388649</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>79209520542</v>
+        <v>79209529064</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
+        <v>79209520542</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
         <v>79209546983</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="4" t="s">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="3" t="s">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="1">
-        <v>79209521261</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>79209519734</v>
+        <v>79209521261</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
+        <v>79209519734</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
         <v>79209547924</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="3" t="s">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="1">
-        <v>79209528828</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
+        <v>79209528828</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
         <v>79307811404</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="4" t="s">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="3" t="s">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="4" t="s">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="4" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="1">
-        <v>79206394231</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>79209547638</v>
+        <v>79206394231</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>79209517936</v>
+        <v>79209547638</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>79209521117</v>
+        <v>79209517936</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>79209529372</v>
+        <v>79209521117</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>79209529704</v>
+        <v>79209529372</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
+        <v>79209529704</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
         <v>79209518523</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="3" t="s">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="3" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1">
-        <v>79209544693</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>79209517705</v>
+        <v>79209544693</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>79209524877</v>
+        <v>79209517705</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>79209518765</v>
+        <v>79209524877</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>79209548928</v>
+        <v>79209518765</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>79206393775</v>
+        <v>79209548928</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>79209546504</v>
+        <v>79206393775</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>79209547501</v>
+        <v>79209546504</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
+        <v>79209547501</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
         <v>79209528438</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="3" t="s">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="1">
-        <v>79209518704</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>79209528392</v>
+        <v>79209518704</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>79209548371</v>
+        <v>79209528392</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
+        <v>79209548371</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
         <v>79209549507</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="3" t="s">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="1">
-        <v>79209542449</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>79209545027</v>
+        <v>79209542449</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>79209528306</v>
+        <v>79209545027</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
+        <v>79209528306</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
         <v>79209531392</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="4" t="s">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="1">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
         <v>79206394163</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="2" t="s">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="1">
-        <v>79209516882</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>79206389862</v>
+        <v>79209516882</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>79209549431</v>
+        <v>79206389862</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>79206393367</v>
+        <v>79209549431</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>79209520153</v>
+        <v>79206393367</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>79209546978</v>
+        <v>79209520153</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>79209549242</v>
+        <v>79209546978</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>79209531274</v>
+        <v>79209549242</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
+        <v>79209531274</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
         <v>79209546740</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="4" t="s">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="1">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
         <v>79209518828</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="3" t="s">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="1">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
         <v>79206392641</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="3" t="s">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="1">
-        <v>79209529037</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>79209529069</v>
+        <v>79209529037</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>79209547826</v>
+        <v>79209529069</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>79209517598</v>
+        <v>79209547826</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>79209518571</v>
+        <v>79209517598</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>79209531250</v>
+        <v>79209518571</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>79206397792</v>
+        <v>79209531250</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>79307809937</v>
+        <v>79206397792</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>79206391996</v>
+        <v>79307809937</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>79209543193</v>
+        <v>79206391996</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>79209528353</v>
+        <v>79209543193</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
+        <v>79209528353</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
         <v>79209544639</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="2" t="s">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="1">
-        <v>79209548201</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>79209549295</v>
+        <v>79209548201</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>79209545166</v>
+        <v>79209549295</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
+        <v>79209545166</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
         <v>79209517090</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="4" t="s">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="4" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="1">
-        <v>79209546810</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>79206392531</v>
+        <v>79209546810</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>79209519261</v>
+        <v>79206392531</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>79209548628</v>
+        <v>79209519261</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>79206395595</v>
+        <v>79209548628</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>79209531253</v>
+        <v>79206395595</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>79209544415</v>
+        <v>79209531253</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>79206392849</v>
+        <v>79209544415</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>79206389396</v>
+        <v>79206392849</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>79206395319</v>
+        <v>79206389396</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
+        <v>79206395319</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
         <v>79206396858</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="4" t="s">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="1">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
         <v>79209525679</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="3" t="s">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="1">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
         <v>79206394825</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="2" t="s">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="1">
-        <v>79209529151</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>79209522360</v>
+        <v>79209529151</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
+        <v>79209522360</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
         <v>79209544842</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="4" t="s">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="4" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="1">
-        <v>79209518742</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>79209528185</v>
+        <v>79209518742</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>79209529338</v>
+        <v>79209528185</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>79209518759</v>
+        <v>79209529338</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>79206394557</v>
+        <v>79209518759</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>79209543532</v>
+        <v>79206394557</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>79209547349</v>
+        <v>79209543532</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>79209518956</v>
+        <v>79209547349</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>79209518986</v>
+        <v>79209518956</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>79209530623</v>
+        <v>79209518986</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>79209548108</v>
+        <v>79209530623</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>79209549562</v>
+        <v>79209548108</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>79209547661</v>
+        <v>79209549562</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>79209546447</v>
+        <v>79209547661</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>79209524854</v>
+        <v>79209546447</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>79206391138</v>
+        <v>79209524854</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>79209543352</v>
+        <v>79206391138</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>79209544296</v>
+        <v>79209543352</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>79206395272</v>
+        <v>79209544296</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>79209519340</v>
+        <v>79206395272</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>79209529357</v>
+        <v>79209519340</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
+        <v>79209529357</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
         <v>79209549468</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="2" t="s">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="1">
-        <v>79209528971</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>79209531238</v>
+        <v>79209528971</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>79206397573</v>
+        <v>79209531238</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>79209549315</v>
+        <v>79206397573</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>79209520284</v>
+        <v>79209549315</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>79209549213</v>
+        <v>79209520284</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>79209542507</v>
+        <v>79209549213</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>79209549224</v>
+        <v>79209542507</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>79209531359</v>
+        <v>79209549224</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>79209547866</v>
+        <v>79209531359</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>79209543528</v>
+        <v>79209547866</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>79206394341</v>
+        <v>79209543528</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>79209548821</v>
+        <v>79206394341</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>79209529866</v>
+        <v>79209548821</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>79209528169</v>
+        <v>79209529866</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>79209518791</v>
+        <v>79209528169</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>79209520858</v>
+        <v>79209518791</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
-        <v>79209528456</v>
+        <v>79209520858</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>79307811459</v>
+        <v>79209528456</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>79209542283</v>
+        <v>79307811459</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
+        <v>79209542283</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
         <v>79209543911</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="3" t="s">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="1">
-        <v>79209521124</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>79307812047</v>
+        <v>79209521124</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
-        <v>79209518105</v>
+        <v>79307812047</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>79209519846</v>
+        <v>79209518105</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>79206389949</v>
+        <v>79209519846</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>79209543860</v>
+        <v>79206389949</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>79209546463</v>
+        <v>79209543860</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>79209519103</v>
+        <v>79209546463</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>79209518215</v>
+        <v>79209519103</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>79206393918</v>
+        <v>79209518215</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
+        <v>79206393918</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
         <v>79209519085</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="2" t="s">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="1">
-        <v>79209519322</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
+        <v>79209519322</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="1">
         <v>79206394435</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="4" t="s">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="4" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="1">
-        <v>79206392587</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
+        <v>79206392587</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
         <v>79209517036</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="4" t="s">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="2" t="s">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="1">
-        <v>79209517492</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>79209546383</v>
+        <v>79209517492</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
+        <v>79209546383</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="1">
         <v>79209548055</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="4" t="s">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="4" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="1">
-        <v>79206392260</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>79209518917</v>
+        <v>79206392260</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>79209525643</v>
+        <v>79209518917</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>79209549406</v>
+        <v>79209525643</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>79307812079</v>
+        <v>79209549406</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>79209529738</v>
+        <v>79307812079</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
+        <v>79209529738</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="1">
         <v>79209524859</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="3" t="s">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="1">
-        <v>79209518926</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
+        <v>79209518926</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="1">
         <v>79209519230</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="3" t="s">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="1">
-        <v>79209547004</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>79209518592</v>
+        <v>79209547004</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>79209531237</v>
+        <v>79209518592</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>79209519307</v>
+        <v>79209531237</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>79209544339</v>
+        <v>79209519307</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>79209518719</v>
+        <v>79209544339</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>79206393867</v>
+        <v>79209518719</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
+        <v>79206393867</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
         <v>79209547336</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="3" t="s">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="3" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="1">
-        <v>79209546698</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>79209529686</v>
+        <v>79209546698</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>79206392494</v>
+        <v>79209529686</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>79209529814</v>
+        <v>79206392494</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>79209520231</v>
+        <v>79209529814</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>79206393721</v>
+        <v>79209520231</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>79209546692</v>
+        <v>79206393721</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>79209546528</v>
+        <v>79209546692</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>79307811571</v>
+        <v>79209546528</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>79209519368</v>
+        <v>79307811571</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>79209543174</v>
+        <v>79209519368</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>79206389232</v>
+        <v>79209543174</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>79209530121</v>
+        <v>79206389232</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>79209531377</v>
+        <v>79209530121</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>79209517638</v>
+        <v>79209531377</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>79209546652</v>
+        <v>79209517638</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>79209518499</v>
+        <v>79209546652</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>79209530240</v>
+        <v>79209518499</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>79209519249</v>
+        <v>79209530240</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>79209547357</v>
+        <v>79209519249</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>79206398694</v>
+        <v>79209547357</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>79209549216</v>
+        <v>79206398694</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>79209516898</v>
+        <v>79209549216</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
+        <v>79209516898</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="1">
         <v>79307811527</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="3" t="s">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="1">
-        <v>79206397614</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>79209543881</v>
+        <v>79206397614</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>79209547636</v>
+        <v>79209543881</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>79209530629</v>
+        <v>79209547636</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
+        <v>79209530629</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="1">
         <v>79209543743</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="3" t="s">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="1">
-        <v>79209517674</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>79209519641</v>
+        <v>79209517674</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
+        <v>79209519641</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="1">
         <v>79209544193</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="2" t="s">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="1">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="1">
         <v>79209549185</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="4" t="s">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="4" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="1">
-        <v>79209529864</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>79209518412</v>
+        <v>79209529864</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>79209519366</v>
+        <v>79209518412</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>79209542248</v>
+        <v>79209519366</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>79206394840</v>
+        <v>79209542248</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>79209546267</v>
+        <v>79206394840</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>79209547895</v>
+        <v>79209546267</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
-        <v>79209517657</v>
+        <v>79209547895</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
-        <v>79209521019</v>
+        <v>79209517657</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>79206389433</v>
+        <v>79209521019</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
-        <v>79209542187</v>
+        <v>79206389433</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
-        <v>79206394169</v>
+        <v>79209542187</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>79209520474</v>
+        <v>79206394169</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
-        <v>79209520959</v>
+        <v>79209520474</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
-        <v>79209529033</v>
+        <v>79209520959</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
-        <v>79209529698</v>
+        <v>79209529033</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
-        <v>79206391867</v>
+        <v>79209529698</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>79209519875</v>
+        <v>79206391867</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
-        <v>79209543789</v>
+        <v>79209519875</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>79209549265</v>
+        <v>79209543789</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
+        <v>79209549265</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="1">
         <v>79209519358</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="3" t="s">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="1">
-        <v>79209517038</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
-        <v>79206389941</v>
+        <v>79209517038</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>79209543096</v>
+        <v>79206389941</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>79209531273</v>
+        <v>79209543096</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
-        <v>79209528474</v>
+        <v>79209531273</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>79307811796</v>
+        <v>79209528474</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>79209517578</v>
+        <v>79307811796</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>79209549483</v>
+        <v>79209517578</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>79206393655</v>
+        <v>79209549483</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>79209531429</v>
+        <v>79206393655</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>79209547604</v>
+        <v>79209531429</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>79209547542</v>
+        <v>79209547604</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>79206391759</v>
+        <v>79209547542</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>79209518248</v>
+        <v>79206391759</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
+        <v>79209518248</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="1">
         <v>79209543557</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="4" t="s">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="4" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="1">
-        <v>79209546559</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>79209517629</v>
+        <v>79209546559</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>79206395487</v>
+        <v>79209517629</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>79209521157</v>
+        <v>79206395487</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>79209544789</v>
+        <v>79209521157</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
-        <v>79206396213</v>
+        <v>79209544789</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>79206391685</v>
+        <v>79206396213</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>79209521106</v>
+        <v>79206391685</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>79206389553</v>
+        <v>79209521106</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>79209549281</v>
+        <v>79206389553</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>79209518748</v>
+        <v>79209549281</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>79209549132</v>
+        <v>79209518748</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>79209519985</v>
+        <v>79209549132</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>79209520081</v>
+        <v>79209519985</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
-        <v>79206391592</v>
+        <v>79209520081</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>79209543235</v>
+        <v>79206391592</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>79209548697</v>
+        <v>79209543235</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>79209543373</v>
+        <v>79209548697</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>79209528310</v>
+        <v>79209543373</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>79209549227</v>
+        <v>79209528310</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>79209528544</v>
+        <v>79209549227</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>79206394875</v>
+        <v>79209528544</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>79209529682</v>
+        <v>79206394875</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>79206394312</v>
+        <v>79209529682</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>79209531270</v>
+        <v>79206394312</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>79209518304</v>
+        <v>79209531270</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>79209529112</v>
+        <v>79209518304</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
-        <v>79209542352</v>
+        <v>79209529112</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
-        <v>79209547376</v>
+        <v>79209542352</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>79209520861</v>
+        <v>79209547376</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>79206395192</v>
+        <v>79209520861</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>79209547961</v>
+        <v>79206395192</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
-        <v>79209531379</v>
+        <v>79209547961</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
+        <v>79209531379</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="1">
         <v>79209528400</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="2" t="s">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="1">
-        <v>79209517941</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>79206392536</v>
+        <v>79209517941</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
-        <v>79209547427</v>
+        <v>79206392536</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
-        <v>79209543287</v>
+        <v>79209547427</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
-        <v>79209520331</v>
+        <v>79209543287</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
-        <v>79209520641</v>
+        <v>79209520331</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
-        <v>79307811971</v>
+        <v>79209520641</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
-        <v>79209544659</v>
+        <v>79307811971</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
-        <v>79209519902</v>
+        <v>79209544659</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
+        <v>79209519902</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="1">
         <v>79209524869</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="4" t="s">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="4" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="1">
-        <v>79209523682</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>79209520827</v>
+        <v>79209523682</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>79209546199</v>
+        <v>79209520827</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
-        <v>79209519054</v>
+        <v>79209546199</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>79206394534</v>
+        <v>79209519054</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
-        <v>79206394866</v>
+        <v>79206394534</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
-        <v>79209549202</v>
+        <v>79206394866</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
-        <v>79209543200</v>
+        <v>79209549202</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>79209528308</v>
+        <v>79209543200</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
+        <v>79209528308</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
         <v>79209523678</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="2" t="s">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="1">
-        <v>79206389642</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
-        <v>79307811980</v>
+        <v>79206389642</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
-        <v>79209518773</v>
+        <v>79307811980</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
-        <v>79209517496</v>
+        <v>79209518773</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>79209518728</v>
+        <v>79209517496</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
-        <v>79209547803</v>
+        <v>79209518728</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>79209518325</v>
+        <v>79209547803</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>79209528140</v>
+        <v>79209518325</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>79209517027</v>
+        <v>79209528140</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
-        <v>79307812068</v>
+        <v>79209517027</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
-        <v>79209517702</v>
+        <v>79307812068</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
-        <v>79209518160</v>
+        <v>79209517702</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
-        <v>79209542696</v>
+        <v>79209518160</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
-        <v>79209516873</v>
+        <v>79209542696</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
-        <v>79209518397</v>
+        <v>79209516873</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
-        <v>79209528157</v>
+        <v>79209518397</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
-        <v>79209542936</v>
+        <v>79209528157</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
-        <v>79209529170</v>
+        <v>79209542936</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
-        <v>79206396764</v>
+        <v>79209529170</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
-        <v>79307812137</v>
+        <v>79206396764</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
-        <v>79206394058</v>
+        <v>79307812137</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
-        <v>79209530583</v>
+        <v>79206394058</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
-        <v>79209524171</v>
+        <v>79209530583</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
-        <v>79206396481</v>
+        <v>79209524171</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
-        <v>79209529971</v>
+        <v>79206396481</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
-        <v>79206392804</v>
+        <v>79209529971</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
-        <v>79206398438</v>
+        <v>79206392804</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
-        <v>79209529376</v>
+        <v>79206398438</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
-        <v>79206393283</v>
+        <v>79209529376</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
-        <v>79209519458</v>
+        <v>79206393283</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
-        <v>79209519096</v>
+        <v>79209519458</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
-        <v>79209547502</v>
+        <v>79209519096</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
-        <v>79209518168</v>
+        <v>79209547502</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
+        <v>79209518168</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="1">
         <v>79209516978</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="3" t="s">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="1">
-        <v>79209544136</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
-        <v>79209524199</v>
+        <v>79209544136</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
+        <v>79209524199</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="1">
         <v>79209517673</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="2" t="s">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="1">
-        <v>79209520947</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
-        <v>79206395723</v>
+        <v>79209520947</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
-        <v>79209549011</v>
+        <v>79206395723</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
+        <v>79209549011</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" s="1">
         <v>79209529689</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="3" t="s">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="1">
-        <v>79209542184</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>79209545195</v>
+        <v>79209542184</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>79209529419</v>
+        <v>79209545195</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>79209530559</v>
+        <v>79209529419</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
+        <v>79209530559</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" s="1">
         <v>79209518486</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="2" t="s">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="1">
-        <v>79209517910</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
-        <v>79209519047</v>
+        <v>79209517910</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
-        <v>79209544907</v>
+        <v>79209519047</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
+        <v>79209544907</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="1">
         <v>79209544766</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="4" t="s">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" s="4" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="1">
-        <v>79209528931</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
-        <v>79209528300</v>
+        <v>79209528931</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
-        <v>79209518280</v>
+        <v>79209528300</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
-        <v>79209516866</v>
+        <v>79209518280</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
-        <v>79209542682</v>
+        <v>79209516866</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
-        <v>79209546295</v>
+        <v>79209542682</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
-        <v>79206392741</v>
+        <v>79209546295</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
-        <v>79209547971</v>
+        <v>79206392741</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
-        <v>79209547077</v>
+        <v>79209547971</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
-        <v>79206389344</v>
+        <v>79209547077</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
-        <v>79209519872</v>
+        <v>79206389344</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
-        <v>79209518723</v>
+        <v>79209519872</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
-        <v>79209528436</v>
+        <v>79209518723</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
+        <v>79209528436</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" s="1">
         <v>79209518588</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945" s="2" t="s">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946" s="1">
-        <v>79209531260</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
-        <v>79206398838</v>
+        <v>79209531260</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
-        <v>79206389758</v>
+        <v>79206398838</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
-        <v>79209549170</v>
+        <v>79206389758</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
-        <v>79209544027</v>
+        <v>79209549170</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
-        <v>79209523641</v>
+        <v>79209544027</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
-        <v>79307811997</v>
+        <v>79209523641</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
-        <v>79209520841</v>
+        <v>79307811997</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
+        <v>79209520841</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" s="1">
         <v>79206392689</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955" s="3" t="s">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" s="3" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956" s="1">
-        <v>79209519506</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
-        <v>79209518890</v>
+        <v>79209519506</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
-        <v>79209529195</v>
+        <v>79209518890</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
-        <v>79209517829</v>
+        <v>79209529195</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
-        <v>79209542546</v>
+        <v>79209517829</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
-        <v>79206388783</v>
+        <v>79209542546</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
-        <v>79206391419</v>
+        <v>79206388783</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
-        <v>79206398287</v>
+        <v>79206391419</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
-        <v>79206394280</v>
+        <v>79206398287</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
-        <v>79209543937</v>
+        <v>79206394280</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
-        <v>79209529940</v>
+        <v>79209543937</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
-        <v>79209546726</v>
+        <v>79209529940</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
+        <v>79209546726</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" s="1">
         <v>79209518451</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" s="4" t="s">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" s="4" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970" s="1">
-        <v>79209528317</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
-        <v>79209517836</v>
+        <v>79209528317</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
+        <v>79209517836</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" s="1">
         <v>79307812008</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973" s="4" t="s">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974" s="1">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" s="1">
         <v>79209519609</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975" s="2" t="s">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976" s="1">
-        <v>79307810032</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
-        <v>79209518060</v>
+        <v>79307810032</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
-        <v>79209529025</v>
+        <v>79209518060</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
+        <v>79209529025</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" s="1">
         <v>79209517831</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980" s="4" t="s">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981" s="1">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" s="1">
         <v>79209547721</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982" s="3" t="s">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983" s="1">
-        <v>79206394182</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
-        <v>79209520049</v>
+        <v>79206394182</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
+        <v>79209520049</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" s="1">
         <v>79209528378</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986" s="4" t="s">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" s="4" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A987" s="1">
-        <v>79209520225</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
-        <v>79209522398</v>
+        <v>79209520225</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
-        <v>79209549241</v>
+        <v>79209522398</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
-        <v>79209529353</v>
+        <v>79209549241</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
-        <v>79209544900</v>
+        <v>79209529353</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
-        <v>79209519258</v>
+        <v>79209544900</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
+        <v>79209519258</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" s="1">
         <v>79307811693</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" s="2" t="s">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" s="1">
-        <v>79209528933</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
-        <v>79209517886</v>
+        <v>79209528933</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
-        <v>79209517004</v>
+        <v>79209517886</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
-        <v>79209529725</v>
+        <v>79209517004</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
-        <v>79209517321</v>
+        <v>79209529725</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
-        <v>79209529365</v>
+        <v>79209517321</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
-        <v>79307812100</v>
+        <v>79209529365</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
-        <v>79209520341</v>
+        <v>79307812100</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
-        <v>79209518763</v>
+        <v>79209520341</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
+        <v>79209518763</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1">
         <v>79209517061</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="4" t="s">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="4" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="1">
-        <v>79209547472</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1">
-        <v>79209542932</v>
+        <v>79209547472</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008" s="1">
-        <v>79209547410</v>
+        <v>79209542932</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
-        <v>79209531445</v>
+        <v>79209547410</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
-        <v>79209542494</v>
+        <v>79209531445</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011" s="1">
-        <v>79209548277</v>
+        <v>79209542494</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012" s="1">
-        <v>79209543803</v>
+        <v>79209548277</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1">
-        <v>79209546234</v>
+        <v>79209543803</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1">
-        <v>79307811584</v>
+        <v>79209546234</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
-        <v>79206389486</v>
+        <v>79307811584</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
-        <v>79209544253</v>
+        <v>79206389486</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
-        <v>79209531421</v>
+        <v>79209544253</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
-        <v>79209518063</v>
+        <v>79209531421</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
-        <v>79209519834</v>
+        <v>79209518063</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
-        <v>79209542965</v>
+        <v>79209519834</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
-        <v>79209520682</v>
+        <v>79209542965</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
-        <v>79209548367</v>
+        <v>79209520682</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
-        <v>79209547356</v>
+        <v>79209548367</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
-        <v>79209529094</v>
+        <v>79209547356</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
-        <v>79209546943</v>
+        <v>79209529094</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" s="1">
-        <v>79209521298</v>
+        <v>79209546943</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027" s="1">
-        <v>79209519210</v>
+        <v>79209521298</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="1">
-        <v>79206389243</v>
+        <v>79209519210</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1">
-        <v>79209518516</v>
+        <v>79206389243</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" s="1">
-        <v>79209548944</v>
+        <v>79209518516</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031" s="1">
-        <v>79209528217</v>
+        <v>79209548944</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032" s="1">
-        <v>79209516916</v>
+        <v>79209528217</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" s="1">
-        <v>79209518581</v>
+        <v>79209516916</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" s="1">
-        <v>79209544802</v>
+        <v>79209518581</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1">
-        <v>79209519390</v>
+        <v>79209544802</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036" s="1">
-        <v>79209543744</v>
+        <v>79209519390</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" s="1">
-        <v>79209544310</v>
+        <v>79209543744</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" s="1">
-        <v>79307812054</v>
+        <v>79209544310</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039" s="1">
-        <v>79307812017</v>
+        <v>79307812054</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" s="1">
-        <v>79206392418</v>
+        <v>79307812017</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041" s="1">
-        <v>79209523664</v>
+        <v>79206392418</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" s="1">
-        <v>79209528838</v>
+        <v>79209523664</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043" s="1">
-        <v>79209517661</v>
+        <v>79209528838</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1">
-        <v>79209531393</v>
+        <v>79209517661</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="1">
-        <v>79209531352</v>
+        <v>79209531393</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="1">
-        <v>79209544857</v>
+        <v>79209531352</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" s="1">
-        <v>79209519556</v>
+        <v>79209544857</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048" s="1">
-        <v>79209528540</v>
+        <v>79209519556</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049" s="1">
-        <v>79209542471</v>
+        <v>79209528540</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1">
+        <v>79209542471</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="1">
         <v>79307812004</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1051" s="3" t="s">
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1052" s="1">
-        <v>79209530469</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1">
-        <v>79209517658</v>
+        <v>79209530469</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
-        <v>79209548446</v>
+        <v>79209517658</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
-        <v>79209529326</v>
+        <v>79209548446</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
+        <v>79209529326</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="1">
         <v>79206394121</v>
       </c>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" s="2" t="s">
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" s="1">
-        <v>79209521228</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
-        <v>79209529327</v>
+        <v>79209521228</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
-        <v>79209543541</v>
+        <v>79209529327</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
-        <v>79209548804</v>
+        <v>79209543541</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
-        <v>79209543242</v>
+        <v>79209548804</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
+        <v>79209543242</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="1">
         <v>79209518634</v>
       </c>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" s="2" t="s">
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" s="1">
-        <v>79209543245</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
-        <v>79209544709</v>
+        <v>79209543245</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="1">
-        <v>79209547398</v>
+        <v>79209544709</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1">
-        <v>79209517023</v>
+        <v>79209547398</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" s="1">
-        <v>79209518083</v>
+        <v>79209517023</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
-        <v>79206394183</v>
+        <v>79209518083</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="1">
+        <v>79206394183</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072" s="1">
         <v>79209521025</v>
       </c>
     </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" s="3" t="s">
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" s="1">
-        <v>79209519083</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="1">
-        <v>79209518199</v>
+        <v>79209519083</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075" s="1">
-        <v>79307811790</v>
+        <v>79209518199</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" s="1">
+        <v>79307811790</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" s="1">
         <v>79307812006</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077" s="3" t="s">
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078" s="1">
-        <v>79209547089</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="1">
-        <v>79307811482</v>
+        <v>79209547089</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080" s="1">
-        <v>79206397264</v>
+        <v>79307811482</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" s="1">
+        <v>79206397264</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082" s="1">
         <v>79209516944</v>
       </c>
     </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082" s="4" t="s">
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" s="4" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083" s="1">
-        <v>79206396442</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" s="1">
-        <v>79209528357</v>
+        <v>79206396442</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="1">
-        <v>79206395127</v>
+        <v>79209528357</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" s="1">
-        <v>79307811917</v>
+        <v>79206395127</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087" s="1">
-        <v>79209518788</v>
+        <v>79307811917</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" s="1">
-        <v>79209528416</v>
+        <v>79209518788</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="1">
-        <v>79209542439</v>
+        <v>79209528416</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090" s="1">
+        <v>79209542439</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091" s="1">
         <v>79209523590</v>
       </c>
     </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" s="2" t="s">
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" s="3" t="s">
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" s="1">
-        <v>79209518614</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="1">
+        <v>79209518614</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="1">
         <v>79209543882</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" s="1">
-        <v>79209543464</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098" s="1">
-        <v>79209543206</v>
+        <v>79209543464</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" s="1">
-        <v>79209549313</v>
+        <v>79209543206</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="1">
-        <v>79209529186</v>
+        <v>79209549313</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="1">
-        <v>79209545196</v>
+        <v>79209529186</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="1">
-        <v>79209548396</v>
+        <v>79209545196</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" s="1">
-        <v>79206397926</v>
+        <v>79209548396</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" s="1">
+        <v>79206397926</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="1">
         <v>79209549288</v>
       </c>
     </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" s="3" t="s">
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1106" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" s="4" t="s">
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" s="1">
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1108" s="1">
         <v>79206395375</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" s="3" t="s">
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" s="1">
-        <v>79209517643</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110" s="1">
-        <v>79209547012</v>
+        <v>79209517643</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111" s="1">
-        <v>79307812046</v>
+        <v>79209547012</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112" s="1">
-        <v>79209517894</v>
+        <v>79307812046</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1113" s="1">
-        <v>79206391153</v>
+        <v>79209517894</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114" s="1">
-        <v>79206389789</v>
+        <v>79206391153</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115" s="1">
-        <v>79206389456</v>
+        <v>79206389789</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116" s="1">
-        <v>79307809847</v>
+        <v>79206389456</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117" s="1">
-        <v>79209529769</v>
+        <v>79307809847</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118" s="1">
-        <v>79209544390</v>
+        <v>79209529769</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119" s="1">
+        <v>79209544390</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="1">
         <v>79209542301</v>
       </c>
     </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1120" s="4" t="s">
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="4" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1121" s="1">
-        <v>79209525659</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1122" s="1">
-        <v>79209520459</v>
+        <v>79209525659</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123" s="1">
-        <v>79209547332</v>
+        <v>79209520459</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124" s="1">
-        <v>79209524140</v>
+        <v>79209547332</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1125" s="1">
-        <v>79206394871</v>
+        <v>79209524140</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126" s="1">
-        <v>79209528221</v>
+        <v>79206394871</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127" s="1">
-        <v>79209519660</v>
+        <v>79209528221</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1128" s="1">
+        <v>79209519660</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="1">
         <v>79206394395</v>
       </c>
     </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1129" s="3" t="s">
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1130" s="1">
-        <v>79209519207</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131" s="1">
-        <v>79209516859</v>
+        <v>79209519207</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132" s="1">
-        <v>79206397618</v>
+        <v>79209516859</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133" s="1">
-        <v>79209518454</v>
+        <v>79206397618</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1134" s="1">
-        <v>79209546303</v>
+        <v>79209518454</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135" s="1">
-        <v>79206391156</v>
+        <v>79209546303</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136" s="1">
-        <v>79209519532</v>
+        <v>79206391156</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" s="1">
-        <v>79209548498</v>
+        <v>79209519532</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138" s="1">
-        <v>79209528507</v>
+        <v>79209548498</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139" s="1">
-        <v>79209520374</v>
+        <v>79209528507</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" s="1">
-        <v>79209522343</v>
+        <v>79209520374</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141" s="1">
-        <v>79209528923</v>
+        <v>79209522343</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142" s="1">
-        <v>79209548737</v>
+        <v>79209528923</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143" s="1">
-        <v>79209518839</v>
+        <v>79209548737</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144" s="1">
-        <v>79209547813</v>
+        <v>79209518839</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145" s="1">
+        <v>79209547813</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146" s="1">
         <v>79209549379</v>
       </c>
     </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1146" s="2" t="s">
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1147" s="1">
-        <v>79209546579</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148" s="1">
-        <v>79307812131</v>
+        <v>79209546579</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1149" s="1">
-        <v>79209543950</v>
+        <v>79307812131</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150" s="1">
-        <v>79209548417</v>
+        <v>79209543950</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1151" s="1">
-        <v>79206394668</v>
+        <v>79209548417</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152" s="1">
-        <v>79209530131</v>
+        <v>79206394668</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1153" s="1">
-        <v>79209522373</v>
+        <v>79209530131</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1154" s="1">
-        <v>79209517132</v>
+        <v>79209522373</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155" s="1">
-        <v>79307811460</v>
+        <v>79209517132</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156" s="1">
-        <v>79206393265</v>
+        <v>79307811460</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" s="1">
-        <v>79209548105</v>
+        <v>79206393265</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158" s="1">
-        <v>79209530053</v>
+        <v>79209548105</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159" s="1">
-        <v>79209546891</v>
+        <v>79209530053</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1160" s="1">
-        <v>79206391793</v>
+        <v>79209546891</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161" s="1">
-        <v>79206394903</v>
+        <v>79206391793</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1162" s="1">
-        <v>79206396413</v>
+        <v>79206394903</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163" s="1">
-        <v>79209519076</v>
+        <v>79206396413</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164" s="1">
-        <v>79209543109</v>
+        <v>79209519076</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" s="1">
-        <v>79209520460</v>
+        <v>79209543109</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166" s="1">
-        <v>79209518159</v>
+        <v>79209520460</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167" s="1">
-        <v>79209524106</v>
+        <v>79209518159</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
-        <v>79307812096</v>
+        <v>79209524106</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" s="1">
-        <v>79209546542</v>
+        <v>79307812096</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
+        <v>79209546542</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="1">
         <v>79209528878</v>
       </c>
     </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1171" s="3" t="s">
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1172" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1172" s="1">
-        <v>79209548523</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1173" s="1">
-        <v>79209544797</v>
+        <v>79209548523</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1174" s="1">
-        <v>79206310840</v>
+        <v>79209544797</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1175" s="1">
-        <v>79206394503</v>
+        <v>79206310840</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1176" s="1">
-        <v>79209524152</v>
+        <v>79206394503</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1177" s="1">
-        <v>79209517849</v>
+        <v>79209524152</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1178" s="1">
-        <v>79206394173</v>
+        <v>79209517849</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1179" s="1">
-        <v>79209519409</v>
+        <v>79206394173</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1180" s="1">
-        <v>79209544362</v>
+        <v>79209519409</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1181" s="1">
-        <v>79209549277</v>
+        <v>79209544362</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1182" s="1">
-        <v>79206394563</v>
+        <v>79209549277</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1183" s="1">
-        <v>79206393615</v>
+        <v>79206394563</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1184" s="1">
-        <v>79209521250</v>
+        <v>79206393615</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1185" s="1">
-        <v>79209518098</v>
+        <v>79209521250</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1186" s="1">
-        <v>79209524739</v>
+        <v>79209518098</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1187" s="1">
-        <v>79209547771</v>
+        <v>79209524739</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1188" s="1">
-        <v>79209520758</v>
+        <v>79209547771</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1189" s="1">
-        <v>79206396792</v>
+        <v>79209520758</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190" s="1">
-        <v>79209528340</v>
+        <v>79206396792</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1191" s="1">
-        <v>79209546757</v>
+        <v>79209528340</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1192" s="1">
-        <v>79209544918</v>
+        <v>79209546757</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1193" s="1">
-        <v>79206392310</v>
+        <v>79209544918</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1194" s="1">
-        <v>79206394093</v>
+        <v>79206392310</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1195" s="1">
+        <v>79206394093</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1196" s="1">
         <v>79209531358</v>
       </c>
     </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1196" s="4" t="s">
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1197" s="4" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1197" s="1">
-        <v>79206389857</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1198" s="1">
-        <v>79209544354</v>
+        <v>79206389857</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1199" s="1">
-        <v>79307809835</v>
+        <v>79209544354</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1200" s="1">
-        <v>79209544326</v>
+        <v>79307809835</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1201" s="1">
-        <v>79209517837</v>
+        <v>79209544326</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1202" s="1">
-        <v>79209543421</v>
+        <v>79209517837</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203" s="1">
-        <v>79209518086</v>
+        <v>79209543421</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1204" s="1">
+        <v>79209518086</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1205" s="1">
         <v>79209528567</v>
       </c>
     </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1205" s="3" t="s">
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1206" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1206" s="1">
-        <v>79209518939</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
+        <v>79209518939</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="1">
         <v>79209529135</v>
       </c>
     </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1208" s="4" t="s">
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1209" s="4" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1209" s="1">
-        <v>79206395602</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210" s="1">
-        <v>79209518739</v>
+        <v>79206395602</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211" s="1">
-        <v>79206396390</v>
+        <v>79209518739</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1212" s="1">
-        <v>79206398257</v>
+        <v>79206396390</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1213" s="1">
-        <v>79209518475</v>
+        <v>79206398257</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214" s="1">
-        <v>79206396243</v>
+        <v>79209518475</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1215" s="1">
-        <v>79307809876</v>
+        <v>79206396243</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1216" s="1">
-        <v>79209518457</v>
+        <v>79307809876</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217" s="1">
-        <v>79209548719</v>
+        <v>79209518457</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218" s="1">
-        <v>79307811696</v>
+        <v>79209548719</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219" s="1">
-        <v>79209523660</v>
+        <v>79307811696</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" s="1">
-        <v>79209523625</v>
+        <v>79209523660</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221" s="1">
-        <v>79209518817</v>
+        <v>79209523625</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222" s="1">
-        <v>79206393959</v>
+        <v>79209518817</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1223" s="1">
-        <v>79209520369</v>
+        <v>79206393959</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1224" s="1">
-        <v>79209524828</v>
+        <v>79209520369</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1225" s="1">
-        <v>79209548604</v>
+        <v>79209524828</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1226" s="1">
-        <v>79206397284</v>
+        <v>79209548604</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1227" s="1">
-        <v>79206392272</v>
+        <v>79206397284</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1228" s="1">
+        <v>79206392272</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1229" s="1">
         <v>79209530621</v>
       </c>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1229" s="3" t="s">
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1230" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1230" s="1">
-        <v>79209544290</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1231" s="1">
-        <v>79209518241</v>
+        <v>79209544290</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1232" s="1">
-        <v>79209518038</v>
+        <v>79209518241</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1233" s="1">
-        <v>79209543482</v>
+        <v>79209518038</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1234" s="1">
-        <v>79209544806</v>
+        <v>79209543482</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1235" s="1">
-        <v>79209529358</v>
+        <v>79209544806</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1236" s="1">
-        <v>79209543348</v>
+        <v>79209529358</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1237" s="1">
-        <v>79206393619</v>
+        <v>79209543348</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1238" s="1">
-        <v>79209546701</v>
+        <v>79206393619</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1239" s="1">
-        <v>79206393310</v>
+        <v>79209546701</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1240" s="1">
-        <v>79209521237</v>
+        <v>79206393310</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1241" s="1">
-        <v>79209547616</v>
+        <v>79209521237</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242" s="1">
-        <v>79209529356</v>
+        <v>79209547616</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1243" s="1">
-        <v>79209519065</v>
+        <v>79209529356</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244" s="1">
-        <v>79209547809</v>
+        <v>79209519065</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245" s="1">
-        <v>79209529363</v>
+        <v>79209547809</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246" s="1">
-        <v>79209529856</v>
+        <v>79209529363</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247" s="1">
+        <v>79209529856</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1248" s="1">
         <v>79209528781</v>
       </c>
     </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1248" s="3" t="s">
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1249" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1249" s="1">
-        <v>79209544283</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250" s="1">
-        <v>79209519866</v>
+        <v>79209544283</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1251" s="1">
+        <v>79209519866</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="1">
         <v>79209549625</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1252" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1253" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1254" s="3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1254" s="1">
-        <v>79209524164</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1255" s="1">
-        <v>79209529767</v>
+        <v>79209524164</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1256" s="1">
-        <v>79209518983</v>
+        <v>79209529767</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1257" s="1">
-        <v>79209530574</v>
+        <v>79209518983</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1258" s="1">
-        <v>79209549110</v>
+        <v>79209530574</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1259" s="1">
-        <v>79209521142</v>
+        <v>79209549110</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1260" s="1">
-        <v>79209529048</v>
+        <v>79209521142</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1261" s="1">
-        <v>79209518209</v>
+        <v>79209529048</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1262" s="1">
-        <v>79206395201</v>
+        <v>79209518209</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1263" s="1">
-        <v>79209544644</v>
+        <v>79206395201</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1264" s="1">
-        <v>79209547369</v>
+        <v>79209544644</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1265" s="1">
-        <v>79209519030</v>
+        <v>79209547369</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1266" s="1">
-        <v>79209544977</v>
+        <v>79209519030</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1267" s="1">
+        <v>79209544977</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="1">
         <v>79209518154</v>
       </c>
     </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1268" s="4" t="s">
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1269" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1269" s="1">
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1270" s="1">
         <v>79209544817</v>
       </c>
     </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1270" s="2" t="s">
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1271" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1271" s="1">
-        <v>79209542193</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1272" s="1">
-        <v>79206391073</v>
+        <v>79209542193</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1273" s="1">
-        <v>79209530553</v>
+        <v>79206391073</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1274" s="1">
-        <v>79209519308</v>
+        <v>79209530553</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1275" s="1">
-        <v>79209530257</v>
+        <v>79209519308</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1276" s="1">
-        <v>79307811797</v>
+        <v>79209530257</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1277" s="1">
+        <v>79307811797</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="1">
         <v>79209521029</v>
       </c>
     </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1278" s="2" t="s">
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1279" s="1">
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="1">
         <v>79209543243</v>
       </c>
     </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1280" s="3" t="s">
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1281" s="1">
-        <v>79209529942</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1282" s="1">
-        <v>79307811803</v>
+        <v>79209529942</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1283" s="1">
+        <v>79307811803</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1284" s="1">
         <v>79206395019</v>
       </c>
     </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1284" s="4" t="s">
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1285" s="4" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1285" s="1">
-        <v>79206394282</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1286" s="1">
-        <v>79206397693</v>
+        <v>79206394282</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1287" s="1">
-        <v>79209519310</v>
+        <v>79206397693</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1288" s="1">
-        <v>79209517565</v>
+        <v>79209519310</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1289" s="1">
-        <v>79209524860</v>
+        <v>79209517565</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1290" s="1">
-        <v>79209543884</v>
+        <v>79209524860</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1291" s="1">
-        <v>79209518239</v>
+        <v>79209543884</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1292" s="1">
-        <v>79209529100</v>
+        <v>79209518239</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1293" s="1">
-        <v>79209524112</v>
+        <v>79209529100</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1294" s="1">
+        <v>79209524112</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1295" s="1">
         <v>79209542735</v>
       </c>
     </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1295" s="3" t="s">
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="3" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1296" s="1">
-        <v>79206394388</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297" s="1">
-        <v>79209518299</v>
+        <v>79206394388</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1298" s="1">
-        <v>79209549450</v>
+        <v>79209518299</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1299" s="1">
-        <v>79307811431</v>
+        <v>79209549450</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1300" s="1">
-        <v>79209528801</v>
+        <v>79307811431</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1301" s="1">
-        <v>79206395714</v>
+        <v>79209528801</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1302" s="1">
-        <v>79307811831</v>
+        <v>79206395714</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1303" s="1">
-        <v>79209547386</v>
+        <v>79307811831</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1304" s="1">
-        <v>79209524756</v>
+        <v>79209547386</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305" s="1">
-        <v>79209530473</v>
+        <v>79209524756</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1306" s="1">
-        <v>79209543112</v>
+        <v>79209530473</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1307" s="1">
+        <v>79209543112</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1308" s="1">
         <v>79209520359</v>
       </c>
     </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1308" s="3" t="s">
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1309" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1309" s="1">
-        <v>79206395920</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1310" s="1">
-        <v>79209529188</v>
+        <v>79206395920</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311" s="1">
-        <v>79209518195</v>
+        <v>79209529188</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1312" s="1">
-        <v>79209518594</v>
+        <v>79209518195</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1313" s="1">
-        <v>79209548856</v>
+        <v>79209518594</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1314" s="1">
-        <v>79206392631</v>
+        <v>79209548856</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1315" s="1">
+        <v>79206392631</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1316" s="1">
         <v>79209544746</v>
       </c>
     </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1316" s="3" t="s">
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1317" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1317" s="1">
-        <v>79206395488</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1318" s="1">
-        <v>79209517012</v>
+        <v>79206395488</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1319" s="1">
-        <v>79206393965</v>
+        <v>79209517012</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1320" s="1">
+        <v>79206393965</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1321" s="1">
         <v>79209546857</v>
       </c>
     </row>
@@ -7433,7 +7404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7445,7 +7416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
